--- a/tests/commands/snapshots/test_generate_monthtly_charges/test_export_to_excel/charges.xlsx
+++ b/tests/commands/snapshots/test_generate_monthtly_charges/test_export_to_excel/charges.xlsx
@@ -61,7 +61,7 @@
     <t>subscription.externalIds.vendor</t>
   </si>
   <si>
-    <t>FORG-2846-5181-3940</t>
+    <t>FORG-9068-1803-9384</t>
   </si>
   <si>
     <t>item.externalIds.vendor</t>
